--- a/PPAIDSI/bin/Debug/net6.0-windows/RankingVinos.xlsx
+++ b/PPAIDSI/bin/Debug/net6.0-windows/RankingVinos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Nombre</t>
   </si>
@@ -26,31 +26,82 @@
     <t>Bodega</t>
   </si>
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
     <t>Varietal</t>
   </si>
   <si>
-    <t>Región</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>veinte</t>
-  </si>
-  <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>dfer</t>
-  </si>
-  <si>
-    <t>lolds</t>
-  </si>
-  <si>
-    <t>gte</t>
-  </si>
-  <si>
-    <t>lolete</t>
+    <t>Cabernet Franc</t>
+  </si>
+  <si>
+    <t>Bodega Norton</t>
+  </si>
+  <si>
+    <t>Valle de Uco</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varietal puro, </t>
+  </si>
+  <si>
+    <t>Merlot Gran Reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varietal puro, Mezcla con notas de Chardonnay, Complemento de Sauvignon Blanc, </t>
+  </si>
+  <si>
+    <t>Malbec Reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varietal puro, Varietal puro, Varietal puro, Varietal puro, Varietal puro, Mezcla con notas de Merlot, Complemento de Cabernet Sauvignon, </t>
+  </si>
+  <si>
+    <t>Tempranillo Reserva</t>
+  </si>
+  <si>
+    <t>Bodega Graffigna</t>
+  </si>
+  <si>
+    <t>Valle del Pedernal</t>
+  </si>
+  <si>
+    <t>Syrah Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varietal puro, Mezcla con notas de Bonarda, Complemento de Tempranillo, </t>
+  </si>
+  <si>
+    <t>Torront?s Especial</t>
+  </si>
+  <si>
+    <t>Cabernet Sauvignon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varietal puro, Varietal puro, Mezcla con notas de Syrah, Complemento de Pinot Noir, </t>
+  </si>
+  <si>
+    <t>Chardonnay Reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varietal puro, Mezcla con notas de Malbec, Complemento de Torrontés, </t>
+  </si>
+  <si>
+    <t>Pinot Noir Select</t>
+  </si>
+  <si>
+    <t>Bonarda Cl?sico</t>
+  </si>
+  <si>
+    <t>Sauvignon Blanc Fresco</t>
+  </si>
+  <si>
+    <t>Rosado de Syrah</t>
   </si>
 </sst>
 </file>
@@ -110,19 +161,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.18324851989746" customWidth="1"/>
     <col min="2" max="2" width="10.8983736038208" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.89707088470459" customWidth="1"/>
+    <col min="5" max="5" width="16.510910034179688" customWidth="1"/>
+    <col min="6" max="6" width="9.3085298538208" customWidth="1"/>
+    <col min="7" max="7" width="122.53218078613281" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -149,72 +200,279 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="0">
+        <v>5</v>
+      </c>
       <c r="C2" s="0">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0">
-        <v>4</v>
+        <v>2000</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="0">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
+      <c r="A3" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0">
-        <v>4</v>
+        <v>4.7</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1800</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0">
-        <v>6</v>
-      </c>
-      <c r="G3" s="0">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0">
+        <v>4.5</v>
       </c>
       <c r="C4" s="0">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0">
-        <v>4</v>
+        <v>1500</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="0">
-        <v>6</v>
-      </c>
-      <c r="G4" s="0">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1900</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0">
+        <v>4.3</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2200</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0">
+        <v>4.3</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1300</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1600</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0">
+        <v>2100</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1400</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1200</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/PPAIDSI/bin/Debug/net6.0-windows/RankingVinos.xlsx
+++ b/PPAIDSI/bin/Debug/net6.0-windows/RankingVinos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Nombre</t>
   </si>
@@ -53,13 +53,13 @@
     <t>Merlot Gran Reserva</t>
   </si>
   <si>
-    <t xml:space="preserve">Varietal puro, Mezcla con notas de Chardonnay, Complemento de Sauvignon Blanc, </t>
+    <t xml:space="preserve">Mezcla con notas de Chardonnay, Complemento de Sauvignon Blanc, </t>
   </si>
   <si>
     <t>Malbec Reserva</t>
   </si>
   <si>
-    <t xml:space="preserve">Varietal puro, Varietal puro, Varietal puro, Varietal puro, Varietal puro, Mezcla con notas de Merlot, Complemento de Cabernet Sauvignon, </t>
+    <t xml:space="preserve">Mezcla con notas de Merlot, Complemento de Cabernet Sauvignon, </t>
   </si>
   <si>
     <t>Tempranillo Reserva</t>
@@ -74,7 +74,7 @@
     <t>Syrah Premium</t>
   </si>
   <si>
-    <t xml:space="preserve">Varietal puro, Mezcla con notas de Bonarda, Complemento de Tempranillo, </t>
+    <t xml:space="preserve">Mezcla con notas de Bonarda, Complemento de Tempranillo, </t>
   </si>
   <si>
     <t>Torront?s Especial</t>
@@ -83,25 +83,19 @@
     <t>Cabernet Sauvignon</t>
   </si>
   <si>
-    <t xml:space="preserve">Varietal puro, Varietal puro, Mezcla con notas de Syrah, Complemento de Pinot Noir, </t>
+    <t xml:space="preserve">Mezcla con notas de Syrah, Complemento de Pinot Noir, </t>
   </si>
   <si>
     <t>Chardonnay Reserva</t>
   </si>
   <si>
-    <t xml:space="preserve">Varietal puro, Mezcla con notas de Malbec, Complemento de Torrontés, </t>
+    <t xml:space="preserve">Mezcla con notas de Malbec, Complemento de Torrontés, </t>
   </si>
   <si>
     <t>Pinot Noir Select</t>
   </si>
   <si>
     <t>Bonarda Cl?sico</t>
-  </si>
-  <si>
-    <t>Sauvignon Blanc Fresco</t>
-  </si>
-  <si>
-    <t>Rosado de Syrah</t>
   </si>
 </sst>
 </file>
@@ -161,19 +155,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.18324851989746" customWidth="1"/>
+    <col min="1" max="1" width="18.90692710876465" customWidth="1"/>
     <col min="2" max="2" width="10.8983736038208" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="15.89707088470459" customWidth="1"/>
     <col min="5" max="5" width="16.510910034179688" customWidth="1"/>
     <col min="6" max="6" width="9.3085298538208" customWidth="1"/>
-    <col min="7" max="7" width="122.53218078613281" customWidth="1"/>
+    <col min="7" max="7" width="61.286380767822266" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -429,52 +423,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="0">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0">
-        <v>1500</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0">
-        <v>1200</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/PPAIDSI/bin/Debug/net6.0-windows/RankingVinos.xlsx
+++ b/PPAIDSI/bin/Debug/net6.0-windows/RankingVinos.xlsx
@@ -38,67 +38,67 @@
     <t>Varietal</t>
   </si>
   <si>
+    <t>Merlot Gran Reserva</t>
+  </si>
+  <si>
+    <t>Bodega Norton</t>
+  </si>
+  <si>
+    <t>Valle de Uco</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Mezcla con notas de Chardonnay, Complemento de Sauvignon Blanc</t>
+  </si>
+  <si>
+    <t>Bonarda Cl?sico</t>
+  </si>
+  <si>
+    <t>Varietal puro</t>
+  </si>
+  <si>
+    <t>Syrah Premium</t>
+  </si>
+  <si>
+    <t>Bodega Graffigna</t>
+  </si>
+  <si>
+    <t>Valle del Pedernal</t>
+  </si>
+  <si>
+    <t>Mezcla con notas de Bonarda, Complemento de Tempranillo</t>
+  </si>
+  <si>
+    <t>Malbec Reserva</t>
+  </si>
+  <si>
+    <t>Mezcla con notas de Merlot, Complemento de Cabernet Sauvignon</t>
+  </si>
+  <si>
+    <t>Tempranillo Reserva</t>
+  </si>
+  <si>
+    <t>Cabernet Sauvignon</t>
+  </si>
+  <si>
+    <t>Mezcla con notas de Syrah, Complemento de Pinot Noir</t>
+  </si>
+  <si>
+    <t>Torront?s Especial</t>
+  </si>
+  <si>
     <t>Cabernet Franc</t>
   </si>
   <si>
-    <t>Bodega Norton</t>
-  </si>
-  <si>
-    <t>Valle de Uco</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Varietal puro</t>
-  </si>
-  <si>
-    <t>Merlot Gran Reserva</t>
-  </si>
-  <si>
-    <t>Mezcla con notas de Chardonnay, Complemento de Sauvignon Blanc</t>
-  </si>
-  <si>
-    <t>Malbec Reserva</t>
-  </si>
-  <si>
-    <t>Mezcla con notas de Merlot, Complemento de Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Tempranillo Reserva</t>
-  </si>
-  <si>
-    <t>Bodega Graffigna</t>
-  </si>
-  <si>
-    <t>Valle del Pedernal</t>
-  </si>
-  <si>
-    <t>Syrah Premium</t>
-  </si>
-  <si>
-    <t>Mezcla con notas de Bonarda, Complemento de Tempranillo</t>
-  </si>
-  <si>
-    <t>Torront?s Especial</t>
-  </si>
-  <si>
-    <t>Cabernet Sauvignon</t>
-  </si>
-  <si>
-    <t>Mezcla con notas de Syrah, Complemento de Pinot Noir</t>
-  </si>
-  <si>
     <t>Chardonnay Reserva</t>
   </si>
   <si>
     <t>Mezcla con notas de Malbec, Complemento de Torrontés</t>
   </si>
   <si>
-    <t>Pinot Noir Select</t>
-  </si>
-  <si>
-    <t>Bonarda Cl?sico</t>
+    <t>Sauvignon Blanc Fresco</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.486541748046875" customWidth="1"/>
+    <col min="2" max="2" width="23.112749099731445" customWidth="1"/>
     <col min="3" max="3" width="12.386933326721191" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="17.366191864013672" customWidth="1"/>
@@ -247,10 +247,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D2" s="1">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -273,10 +273,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D3" s="1">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -299,22 +299,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D4" s="1">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -322,25 +322,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D5" s="1">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -348,25 +348,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D6" s="1">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -377,22 +377,22 @@
         <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -400,25 +400,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -452,25 +452,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2100</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -481,22 +481,22 @@
         <v>28</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D11" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
